--- a/medicine/Enfance/Monsieur_Mouche/Monsieur_Mouche.xlsx
+++ b/medicine/Enfance/Monsieur_Mouche/Monsieur_Mouche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Monsieur Mouche (Smee en anglais) est un personnage de Peter Pan. 
@@ -515,14 +527,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hook ou la Revanche du Capitaine Crochet
-Dans Hook ou la Revanche du Capitaine Crochet, il s'agit d'un personnage burlesque, drôle, simple et peu affirmé. Bien qu'il se trouve du côté des méchants, il n'en a pas complètement l'apparence. Ainsi, on le retrouve en train de balayer le trottoir à la fin du film, faisant un sourire à Peter Pan quand il l'aperçoit.
+          <t>Hook ou la Revanche du Capitaine Crochet</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans Hook ou la Revanche du Capitaine Crochet, il s'agit d'un personnage burlesque, drôle, simple et peu affirmé. Bien qu'il se trouve du côté des méchants, il n'en a pas complètement l'apparence. Ainsi, on le retrouve en train de balayer le trottoir à la fin du film, faisant un sourire à Peter Pan quand il l'aperçoit.
 Il est très avide d'argent et on le voit par exemple s'apprêter à voler tous les bijoux du capitaine. Cela marque donc les limites de la dévotion du moussaillon et révèle son instinct de pirate mis de côté.
-Disney
-Dans le film de Disney, il porte des rouflaquettes et un costume rayé, et on le retrouve souvent en train de boire une bouteille de vin du capitaine. Il peut faire penser à l'un des sept nains du dessin animé Blanche-Neige.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Monsieur_Mouche</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Mouche</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Apparitions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Disney</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le film de Disney, il porte des rouflaquettes et un costume rayé, et on le retrouve souvent en train de boire une bouteille de vin du capitaine. Il peut faire penser à l'un des sept nains du dessin animé Blanche-Neige.
 Dans le remake en prise de vue réelles Peter Pan et Wendy (2022) de David Lowery, il est incarné par Jim Gaffigan.
-Once Upon a Time
-Dans la série Once Upon a Time, M. Mouche est interprété par Christopher Gauthier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Monsieur_Mouche</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Mouche</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Apparitions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Once Upon a Time</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la série Once Upon a Time, M. Mouche est interprété par Christopher Gauthier.
 Originellement, c'est un marchand d'objets rares. Ayant en sa possession un haricot magique, il essaie de marchander la vie éternelle avec Tracassin. Puis il fait la connaissance du Capitaine Crochet qui lui offre un poste sur son bateau. Ils partent alors au Pays Imaginaire dont les habitants ne vieillissent pas.
 Dans cette adaptation, son désir le plus cher est d'obtenir la vie éternelle, raison qui le pousse à accepter la proposition du capitaine.
 Il est à noter qu'il est aussi plus indépendant, car il travaille aussi pour le père de Belle (Saison 2 épisode 4 - Le Crocodile).
